--- a/notebooks/FBXL4/input/FBXL4-data.xlsx
+++ b/notebooks/FBXL4/input/FBXL4-data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11008"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robinp/GIT/phenopacket-store/notebooks/FBXL4/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{126F6F60-47DB-5540-A496-CB38A0B63460}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27836AF0-C213-5B4E-AC9E-A7FCBE6FE0C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="33220" windowHeight="18640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="34600" windowHeight="17420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="541" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="634" uniqueCount="312">
   <si>
     <t>omim_id</t>
   </si>
@@ -753,6 +753,9 @@
     <t>Conflicting interpretations of pathogenicity​</t>
   </si>
   <si>
+    <t>c.614T&gt;Cp.(Ile205Thr)/c.106A&gt;T(p.Arg36*)</t>
+  </si>
+  <si>
     <t>missense/nonsense</t>
   </si>
   <si>
@@ -780,7 +783,184 @@
     <t>6: 98899356 (GRCh38)</t>
   </si>
   <si>
-    <t>c.614T&gt;C(p.Ile205Thr)/c.106A&gt;T(p.Arg36*)</t>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>34738379_P1</t>
+  </si>
+  <si>
+    <t>31969900_P1</t>
+  </si>
+  <si>
+    <t>31969900_P2</t>
+  </si>
+  <si>
+    <t>32779419_P1</t>
+  </si>
+  <si>
+    <t>27743463_P1</t>
+  </si>
+  <si>
+    <t>27743463_P2</t>
+  </si>
+  <si>
+    <t>27743463_P3</t>
+  </si>
+  <si>
+    <t>27743463_P4</t>
+  </si>
+  <si>
+    <t>27743463_P5</t>
+  </si>
+  <si>
+    <t>27743463_P6</t>
+  </si>
+  <si>
+    <t>27743463_P7</t>
+  </si>
+  <si>
+    <t>27743463_P8</t>
+  </si>
+  <si>
+    <t>27743463_P9</t>
+  </si>
+  <si>
+    <t>27743463_P10</t>
+  </si>
+  <si>
+    <t>26404457_P1</t>
+  </si>
+  <si>
+    <t>30804983_P1</t>
+  </si>
+  <si>
+    <t>34602956_P1</t>
+  </si>
+  <si>
+    <t>30771478_P1</t>
+  </si>
+  <si>
+    <t>23993194_P1</t>
+  </si>
+  <si>
+    <t>23993194_P2</t>
+  </si>
+  <si>
+    <t>23993194_P3</t>
+  </si>
+  <si>
+    <t>23993194_P4</t>
+  </si>
+  <si>
+    <t>23993194_P5</t>
+  </si>
+  <si>
+    <t>23993194_P6</t>
+  </si>
+  <si>
+    <t>23993194_P7</t>
+  </si>
+  <si>
+    <t>23993194_P8</t>
+  </si>
+  <si>
+    <t>23993194_P9</t>
+  </si>
+  <si>
+    <t>32559514_P1</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/j.jns.2020.116948</t>
+  </si>
+  <si>
+    <t>27182039_P1</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/j.ejmg.2016.05.005</t>
+  </si>
+  <si>
+    <t>31442532_P1</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/j.bbadis.2019.165536</t>
+  </si>
+  <si>
+    <t>PMID</t>
+  </si>
+  <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t>PMID:34738379</t>
+  </si>
+  <si>
+    <t>Entero-encephalopathy due to FBXL4-related mtDNA depletion syndrome</t>
+  </si>
+  <si>
+    <t>PMID:32559514</t>
+  </si>
+  <si>
+    <t>Novel homozygous mutation in the FBXL4 gene is associated with mitochondria DNA depletion syndrome-13</t>
+  </si>
+  <si>
+    <t>PMID:27182039</t>
+  </si>
+  <si>
+    <t>A novel mutation in FBXL4 in a Norwegian child with encephalomyopathic mitochondrial DNA depletion syndrome 13</t>
+  </si>
+  <si>
+    <t>PMID:31442532</t>
+  </si>
+  <si>
+    <t>Characterization of the C584R variant in the mtDNA depletion syndrome gene FBXL4, reveals a novel role for FBXL4 as a regulator of mitochondrial fusion</t>
+  </si>
+  <si>
+    <t>PMID:31969900</t>
+  </si>
+  <si>
+    <t>Molecular Characterization of New FBXL4 Mutations in Patients With mtDNA Depletion Syndrome</t>
+  </si>
+  <si>
+    <t>PMID:32779419</t>
+  </si>
+  <si>
+    <t>Different clinical presentation in a patient with two novel pathogenic variants of the FBXL4 gene</t>
+  </si>
+  <si>
+    <t>FBXL4 defects are common in patients with congenital lactic acidemia and encephalomyopathic mitochondrial DNA depletion syndrome</t>
+  </si>
+  <si>
+    <t>PMID:27743463</t>
+  </si>
+  <si>
+    <t>PMID:26404457</t>
+  </si>
+  <si>
+    <t>Detailed Biochemical and Bioenergetic Characterization of FBXL4-Related Encephalomyopathic Mitochondrial DNA Depletion</t>
+  </si>
+  <si>
+    <t>PMID:30804983</t>
+  </si>
+  <si>
+    <t>FBXL4-Related Mitochondrial DNA Depletion Syndrome 13 (MTDPS13): A Case Report With a Comprehensive Mutation Review</t>
+  </si>
+  <si>
+    <t>PMID:34602956</t>
+  </si>
+  <si>
+    <t>A Mild Phenotype of Mitochondrial DNA Depletion Syndrome Type 13 with a Novel FBXL4 Variant</t>
+  </si>
+  <si>
+    <t>PMID:30771478</t>
+  </si>
+  <si>
+    <t>Whole exome sequencing revealed mutations in FBXL4, UNC80, and ADK in Thai patients with severe intellectual disabilities</t>
+  </si>
+  <si>
+    <t>PMID:23993194</t>
+  </si>
+  <si>
+    <t>Mutations in FBXL4, encoding a mitochondrial protein, cause early-onset mitochondrial encephalomyopathy</t>
   </si>
 </sst>
 </file>
@@ -804,7 +984,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -820,12 +1000,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -848,7 +1022,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1130,1719 +1306,1982 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W32"/>
+  <dimension ref="A1:Z32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
+      <selection activeCell="Z31" sqref="Z31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="3" max="3" width="14.33203125" customWidth="1"/>
-    <col min="4" max="4" width="16.33203125" customWidth="1"/>
-    <col min="5" max="5" width="12.83203125" customWidth="1"/>
-    <col min="6" max="6" width="19.1640625" customWidth="1"/>
-    <col min="7" max="7" width="15.83203125" customWidth="1"/>
-    <col min="8" max="8" width="27.33203125" customWidth="1"/>
-    <col min="9" max="9" width="17.5" customWidth="1"/>
-    <col min="10" max="10" width="24.33203125" customWidth="1"/>
-    <col min="11" max="11" width="29" customWidth="1"/>
-    <col min="12" max="12" width="21.6640625" customWidth="1"/>
-    <col min="13" max="13" width="18.6640625" customWidth="1"/>
-    <col min="14" max="14" width="36.83203125" customWidth="1"/>
-    <col min="15" max="15" width="32.1640625" customWidth="1"/>
-    <col min="16" max="16" width="10.83203125" customWidth="1"/>
-    <col min="17" max="17" width="17.83203125" customWidth="1"/>
-    <col min="18" max="18" width="29.83203125" customWidth="1"/>
-    <col min="19" max="19" width="15.6640625" customWidth="1"/>
-    <col min="20" max="20" width="19.33203125" customWidth="1"/>
-    <col min="21" max="21" width="22" customWidth="1"/>
-    <col min="22" max="22" width="18.33203125" customWidth="1"/>
-    <col min="23" max="23" width="40.33203125" customWidth="1"/>
+    <col min="1" max="1" width="14.33203125" customWidth="1"/>
+    <col min="2" max="2" width="4" customWidth="1"/>
+    <col min="3" max="3" width="19.83203125" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="3.33203125" customWidth="1"/>
+    <col min="5" max="5" width="2.33203125" customWidth="1"/>
+    <col min="6" max="6" width="12.83203125" customWidth="1"/>
+    <col min="7" max="7" width="9.1640625" customWidth="1"/>
+    <col min="8" max="8" width="2" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="0.1640625" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="5" customWidth="1"/>
+    <col min="11" max="11" width="4.1640625" customWidth="1"/>
+    <col min="12" max="12" width="29" customWidth="1"/>
+    <col min="13" max="13" width="7.33203125" customWidth="1"/>
+    <col min="14" max="14" width="7.83203125" customWidth="1"/>
+    <col min="15" max="15" width="2.33203125" customWidth="1"/>
+    <col min="16" max="16" width="6.6640625" customWidth="1"/>
+    <col min="17" max="17" width="10.83203125" customWidth="1"/>
+    <col min="18" max="18" width="17.83203125" customWidth="1"/>
+    <col min="19" max="19" width="4.1640625" customWidth="1"/>
+    <col min="20" max="20" width="1.1640625" customWidth="1"/>
+    <col min="21" max="21" width="4.5" customWidth="1"/>
+    <col min="22" max="22" width="4.6640625" customWidth="1"/>
+    <col min="23" max="23" width="3.1640625" customWidth="1"/>
+    <col min="24" max="24" width="40.33203125" customWidth="1"/>
+    <col min="25" max="25" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="W1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="X1" s="2" t="s">
         <v>57</v>
       </c>
+      <c r="Y1" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="Z1" s="2" t="s">
+        <v>287</v>
+      </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A2" s="1">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="B2" s="4">
         <v>615471</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>7</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>8</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>13</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>145</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>141</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>142</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>143</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>144</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>16</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>22</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>136</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>14</v>
       </c>
-      <c r="W2" s="3" t="s">
+      <c r="X2" s="3" t="s">
         <v>88</v>
       </c>
+      <c r="Y2" t="s">
+        <v>288</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>289</v>
+      </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="B3" s="4">
         <v>615471</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>5</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>6</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>7</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>8</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>17</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>146</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>19</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>148</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>147</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
         <v>16</v>
       </c>
-      <c r="N3" t="s">
+      <c r="O3" t="s">
         <v>30</v>
       </c>
-      <c r="O3">
+      <c r="P3">
         <v>1.5</v>
       </c>
-      <c r="R3" t="s">
+      <c r="S3" t="s">
         <v>47</v>
       </c>
-      <c r="T3" t="s">
+      <c r="U3" t="s">
         <v>53</v>
       </c>
-      <c r="V3" t="s">
+      <c r="W3" t="s">
         <v>20</v>
       </c>
-      <c r="W3" s="3" t="s">
-        <v>88</v>
+      <c r="X3" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>290</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>291</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A4" s="1">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="B4" s="4">
         <v>615471</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>5</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>6</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>7</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>8</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>17</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>146</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>23</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>152</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>149</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>150</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>151</v>
       </c>
-      <c r="M4" t="s">
+      <c r="N4" t="s">
         <v>153</v>
       </c>
-      <c r="O4">
+      <c r="P4">
         <v>3.5</v>
       </c>
-      <c r="R4" t="s">
+      <c r="S4" t="s">
         <v>48</v>
       </c>
-      <c r="T4" t="s">
+      <c r="U4" t="s">
         <v>54</v>
       </c>
-      <c r="V4" t="s">
+      <c r="W4" t="s">
         <v>20</v>
       </c>
-      <c r="W4" s="3" t="s">
-        <v>88</v>
+      <c r="X4" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>292</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>293</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="B5" s="4">
         <v>615471</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>5</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>6</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>7</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>8</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>17</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>146</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>155</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>152</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>154</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>156</v>
       </c>
-      <c r="L5" t="s">
+      <c r="M5" t="s">
         <v>157</v>
       </c>
-      <c r="M5" t="s">
+      <c r="N5" t="s">
         <v>153</v>
       </c>
-      <c r="P5" t="s">
+      <c r="Q5" t="s">
         <v>34</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="R5" t="s">
         <v>25</v>
       </c>
-      <c r="R5" t="s">
+      <c r="S5" t="s">
         <v>49</v>
       </c>
-      <c r="V5" t="s">
+      <c r="W5" t="s">
         <v>24</v>
       </c>
-      <c r="W5" s="3" t="s">
-        <v>88</v>
+      <c r="X5" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>294</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>295</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A6" s="4">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="B6" s="4">
         <v>615471</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="C6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="D6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="E6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="F6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="G6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="4"/>
-      <c r="H6" t="s">
+      <c r="H6" s="1"/>
+      <c r="I6" t="s">
         <v>26</v>
       </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
         <v>159</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
         <v>160</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>161</v>
       </c>
-      <c r="M6" t="s">
+      <c r="N6" t="s">
         <v>158</v>
       </c>
-      <c r="O6" t="s">
+      <c r="P6" t="s">
         <v>109</v>
       </c>
-      <c r="P6" t="s">
+      <c r="Q6" t="s">
         <v>34</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="R6" t="s">
         <v>74</v>
       </c>
-      <c r="R6" t="s">
+      <c r="S6" t="s">
         <v>50</v>
       </c>
-      <c r="S6" t="s">
+      <c r="T6" t="s">
         <v>52</v>
       </c>
-      <c r="T6" t="s">
+      <c r="U6" t="s">
         <v>55</v>
       </c>
-      <c r="V6" t="s">
+      <c r="W6" t="s">
         <v>20</v>
       </c>
-      <c r="W6" s="3" t="s">
+      <c r="X6" s="3" t="s">
         <v>101</v>
       </c>
+      <c r="Y6" t="s">
+        <v>296</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>297</v>
+      </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A7" s="1">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="B7" s="4">
         <v>615471</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>5</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>6</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>7</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>8</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>17</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>146</v>
       </c>
-      <c r="H7" t="s">
+      <c r="I7" t="s">
         <v>165</v>
       </c>
-      <c r="I7" t="s">
+      <c r="J7" t="s">
         <v>164</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>163</v>
       </c>
-      <c r="K7" t="s">
+      <c r="L7" t="s">
         <v>162</v>
       </c>
-      <c r="M7" t="s">
+      <c r="N7" t="s">
         <v>16</v>
       </c>
-      <c r="O7" t="s">
+      <c r="P7" t="s">
         <v>85</v>
       </c>
-      <c r="P7" t="s">
+      <c r="Q7" t="s">
         <v>33</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="R7" t="s">
         <v>102</v>
       </c>
-      <c r="R7" t="s">
+      <c r="S7" t="s">
         <v>51</v>
       </c>
-      <c r="V7" t="s">
+      <c r="W7" t="s">
         <v>27</v>
       </c>
-      <c r="W7" s="3" t="s">
+      <c r="X7" s="3" t="s">
         <v>101</v>
       </c>
+      <c r="Y7" t="s">
+        <v>296</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>297</v>
+      </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A8" s="1">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="B8" s="4">
         <v>615471</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="C8" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="F8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="G8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>145</v>
       </c>
-      <c r="H8" t="s">
+      <c r="I8" t="s">
         <v>141</v>
       </c>
-      <c r="I8" t="s">
+      <c r="J8" t="s">
         <v>142</v>
       </c>
-      <c r="J8" t="s">
+      <c r="K8" t="s">
         <v>143</v>
       </c>
-      <c r="K8" t="s">
+      <c r="L8" t="s">
         <v>144</v>
       </c>
-      <c r="M8" t="s">
+      <c r="N8" t="s">
         <v>16</v>
       </c>
-      <c r="O8" t="s">
+      <c r="P8" t="s">
         <v>97</v>
       </c>
-      <c r="P8" t="s">
+      <c r="Q8" t="s">
         <v>33</v>
       </c>
-      <c r="Q8" t="s">
+      <c r="R8" t="s">
         <v>99</v>
       </c>
-      <c r="R8" t="s">
+      <c r="S8" t="s">
         <v>98</v>
       </c>
-      <c r="T8" t="s">
+      <c r="U8" t="s">
         <v>56</v>
       </c>
-      <c r="V8" t="s">
+      <c r="W8" t="s">
         <v>28</v>
       </c>
-      <c r="W8" s="3" t="s">
+      <c r="X8" s="3" t="s">
         <v>100</v>
       </c>
+      <c r="Y8" t="s">
+        <v>298</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>299</v>
+      </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A9" s="1">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="B9" s="4">
         <v>615471</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>5</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>6</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>7</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>8</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>17</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>146</v>
       </c>
-      <c r="H9" t="s">
+      <c r="I9" t="s">
         <v>166</v>
       </c>
-      <c r="I9" t="s">
+      <c r="J9" t="s">
         <v>167</v>
       </c>
-      <c r="J9" t="s">
+      <c r="K9" t="s">
         <v>168</v>
       </c>
-      <c r="K9" t="s">
+      <c r="L9" t="s">
         <v>169</v>
       </c>
-      <c r="L9" t="s">
+      <c r="M9" t="s">
         <v>170</v>
       </c>
-      <c r="M9" t="s">
+      <c r="N9" t="s">
         <v>171</v>
       </c>
-      <c r="O9" t="s">
+      <c r="P9" t="s">
         <v>82</v>
       </c>
-      <c r="P9" t="s">
+      <c r="Q9" t="s">
         <v>33</v>
       </c>
-      <c r="Q9" t="s">
+      <c r="R9" t="s">
         <v>73</v>
       </c>
-      <c r="R9" t="s">
+      <c r="S9" t="s">
         <v>37</v>
       </c>
-      <c r="W9" s="3" t="s">
+      <c r="X9" s="3" t="s">
         <v>31</v>
       </c>
+      <c r="Y9" t="s">
+        <v>301</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>300</v>
+      </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A10" s="1">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="B10" s="4">
         <v>615471</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>5</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>6</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>7</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>8</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>17</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
         <v>146</v>
       </c>
-      <c r="H10" t="s">
+      <c r="I10" t="s">
         <v>172</v>
       </c>
-      <c r="I10" t="s">
+      <c r="J10" t="s">
         <v>164</v>
       </c>
-      <c r="J10" t="s">
+      <c r="K10" t="s">
         <v>173</v>
       </c>
-      <c r="K10" t="s">
+      <c r="L10" t="s">
         <v>174</v>
       </c>
-      <c r="O10" t="s">
+      <c r="P10" t="s">
         <v>83</v>
       </c>
-      <c r="P10" t="s">
+      <c r="Q10" t="s">
         <v>34</v>
       </c>
-      <c r="Q10" t="s">
+      <c r="R10" t="s">
         <v>75</v>
       </c>
-      <c r="R10" t="s">
+      <c r="S10" t="s">
         <v>38</v>
       </c>
-      <c r="W10" s="3" t="s">
+      <c r="X10" s="3" t="s">
         <v>31</v>
       </c>
+      <c r="Y10" t="s">
+        <v>301</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>300</v>
+      </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A11" s="1">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="B11" s="4">
         <v>615471</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>5</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>6</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>7</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
         <v>8</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
         <v>17</v>
       </c>
-      <c r="G11" t="s">
+      <c r="H11" t="s">
         <v>146</v>
       </c>
-      <c r="H11" t="s">
+      <c r="I11" t="s">
         <v>172</v>
       </c>
-      <c r="I11" t="s">
+      <c r="J11" t="s">
         <v>164</v>
       </c>
-      <c r="J11" t="s">
+      <c r="K11" t="s">
         <v>173</v>
       </c>
-      <c r="K11" t="s">
+      <c r="L11" t="s">
         <v>174</v>
       </c>
-      <c r="O11" t="s">
+      <c r="P11" t="s">
         <v>84</v>
       </c>
-      <c r="P11" t="s">
+      <c r="Q11" t="s">
         <v>33</v>
       </c>
-      <c r="Q11" t="s">
+      <c r="R11" t="s">
         <v>68</v>
       </c>
-      <c r="R11" t="s">
+      <c r="S11" t="s">
         <v>39</v>
       </c>
-      <c r="W11" s="3" t="s">
+      <c r="X11" s="3" t="s">
         <v>31</v>
       </c>
+      <c r="Y11" t="s">
+        <v>301</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>300</v>
+      </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A12" s="1">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="B12" s="4">
         <v>615471</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
         <v>5</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>6</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>7</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
         <v>8</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
         <v>13</v>
       </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
         <v>145</v>
       </c>
-      <c r="H12" t="s">
+      <c r="I12" t="s">
         <v>175</v>
       </c>
-      <c r="I12" t="s">
+      <c r="J12" t="s">
         <v>142</v>
       </c>
-      <c r="J12" t="s">
+      <c r="K12" t="s">
         <v>176</v>
       </c>
-      <c r="K12" t="s">
+      <c r="L12" t="s">
         <v>177</v>
       </c>
-      <c r="L12" t="s">
+      <c r="M12" t="s">
         <v>178</v>
       </c>
-      <c r="M12" t="s">
+      <c r="N12" t="s">
         <v>179</v>
       </c>
-      <c r="O12" t="s">
+      <c r="P12" t="s">
         <v>85</v>
       </c>
-      <c r="P12" t="s">
+      <c r="Q12" t="s">
         <v>34</v>
       </c>
-      <c r="Q12" t="s">
+      <c r="R12" t="s">
         <v>76</v>
       </c>
-      <c r="R12" t="s">
+      <c r="S12" t="s">
         <v>40</v>
       </c>
-      <c r="W12" s="3" t="s">
+      <c r="X12" s="3" t="s">
         <v>31</v>
       </c>
+      <c r="Y12" t="s">
+        <v>301</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>300</v>
+      </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A13" s="4">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="B13" s="4">
         <v>615471</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="C13" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="D13" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="E13" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="F13" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F13" s="4" t="s">
+      <c r="G13" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G13" s="4"/>
-      <c r="H13" t="s">
+      <c r="H13" s="1"/>
+      <c r="I13" t="s">
         <v>180</v>
       </c>
-      <c r="I13" t="s">
+      <c r="J13" t="s">
         <v>159</v>
       </c>
-      <c r="J13" t="s">
+      <c r="K13" t="s">
         <v>181</v>
       </c>
-      <c r="K13" t="s">
+      <c r="L13" t="s">
         <v>182</v>
       </c>
-      <c r="L13" t="s">
+      <c r="M13" t="s">
         <v>183</v>
       </c>
-      <c r="M13" t="s">
+      <c r="N13" t="s">
         <v>184</v>
       </c>
-      <c r="O13" t="s">
+      <c r="P13" t="s">
         <v>86</v>
       </c>
-      <c r="P13" t="s">
+      <c r="Q13" t="s">
         <v>34</v>
       </c>
-      <c r="Q13" t="s">
+      <c r="R13" t="s">
         <v>77</v>
       </c>
-      <c r="R13" t="s">
+      <c r="S13" t="s">
         <v>41</v>
       </c>
-      <c r="W13" s="3" t="s">
+      <c r="X13" s="3" t="s">
         <v>31</v>
       </c>
+      <c r="Y13" t="s">
+        <v>301</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>300</v>
+      </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A14" s="1">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="B14" s="4">
         <v>615471</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
         <v>5</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>6</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
         <v>7</v>
       </c>
-      <c r="E14" t="s">
+      <c r="F14" t="s">
         <v>8</v>
       </c>
-      <c r="F14" t="s">
+      <c r="G14" t="s">
         <v>13</v>
       </c>
-      <c r="G14" t="s">
+      <c r="H14" t="s">
         <v>145</v>
       </c>
-      <c r="H14" t="s">
+      <c r="I14" t="s">
         <v>185</v>
       </c>
-      <c r="I14" t="s">
+      <c r="J14" t="s">
         <v>142</v>
       </c>
-      <c r="J14" t="s">
+      <c r="K14" t="s">
         <v>188</v>
       </c>
-      <c r="K14" t="s">
+      <c r="L14" t="s">
         <v>187</v>
       </c>
-      <c r="L14" t="s">
+      <c r="M14" t="s">
         <v>189</v>
       </c>
-      <c r="M14" t="s">
+      <c r="N14" t="s">
         <v>186</v>
       </c>
-      <c r="O14" t="s">
+      <c r="P14" t="s">
         <v>87</v>
       </c>
-      <c r="P14" t="s">
+      <c r="Q14" t="s">
         <v>34</v>
       </c>
-      <c r="Q14" t="s">
+      <c r="R14" t="s">
         <v>78</v>
       </c>
-      <c r="R14" t="s">
+      <c r="S14" t="s">
         <v>35</v>
       </c>
-      <c r="W14" s="3" t="s">
+      <c r="X14" s="3" t="s">
         <v>31</v>
       </c>
+      <c r="Y14" t="s">
+        <v>301</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>300</v>
+      </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A15" s="1">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="B15" s="4">
         <v>615471</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
         <v>5</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
         <v>6</v>
       </c>
-      <c r="D15" t="s">
+      <c r="E15" t="s">
         <v>7</v>
       </c>
-      <c r="E15" t="s">
+      <c r="F15" t="s">
         <v>8</v>
       </c>
-      <c r="F15" t="s">
+      <c r="G15" t="s">
         <v>17</v>
       </c>
-      <c r="G15" t="s">
+      <c r="H15" t="s">
         <v>146</v>
       </c>
-      <c r="H15" t="s">
+      <c r="I15" t="s">
         <v>190</v>
       </c>
-      <c r="I15" t="s">
+      <c r="J15" t="s">
         <v>152</v>
       </c>
-      <c r="J15" t="s">
+      <c r="K15" t="s">
         <v>191</v>
       </c>
-      <c r="K15" t="s">
+      <c r="L15" t="s">
         <v>193</v>
       </c>
-      <c r="L15" t="s">
+      <c r="M15" t="s">
         <v>192</v>
       </c>
-      <c r="M15" t="s">
+      <c r="N15" t="s">
         <v>194</v>
       </c>
-      <c r="P15" t="s">
+      <c r="Q15" t="s">
         <v>33</v>
       </c>
-      <c r="R15" t="s">
+      <c r="S15" t="s">
         <v>36</v>
       </c>
-      <c r="W15" s="3" t="s">
+      <c r="X15" s="3" t="s">
         <v>31</v>
       </c>
+      <c r="Y15" t="s">
+        <v>301</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>300</v>
+      </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A16" s="1">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="B16" s="4">
         <v>615471</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C16" t="s">
         <v>5</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D16" t="s">
         <v>6</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E16" t="s">
         <v>7</v>
       </c>
-      <c r="E16" t="s">
+      <c r="F16" t="s">
         <v>8</v>
       </c>
-      <c r="F16" t="s">
+      <c r="G16" t="s">
         <v>17</v>
       </c>
-      <c r="G16" t="s">
+      <c r="H16" t="s">
         <v>146</v>
       </c>
-      <c r="H16" t="s">
+      <c r="I16" t="s">
         <v>195</v>
       </c>
-      <c r="I16" t="s">
+      <c r="J16" t="s">
         <v>164</v>
       </c>
-      <c r="J16" t="s">
+      <c r="K16" t="s">
         <v>196</v>
       </c>
-      <c r="K16" t="s">
+      <c r="L16" t="s">
         <v>197</v>
       </c>
-      <c r="O16" t="s">
+      <c r="P16" t="s">
         <v>85</v>
       </c>
-      <c r="P16" t="s">
+      <c r="Q16" t="s">
         <v>33</v>
       </c>
-      <c r="Q16" t="s">
+      <c r="R16" t="s">
         <v>79</v>
       </c>
-      <c r="R16" t="s">
+      <c r="S16" t="s">
         <v>42</v>
       </c>
-      <c r="W16" s="3" t="s">
+      <c r="X16" s="3" t="s">
         <v>31</v>
       </c>
+      <c r="Y16" t="s">
+        <v>301</v>
+      </c>
+      <c r="Z16" t="s">
+        <v>300</v>
+      </c>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A17" s="1">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B17" s="4">
         <v>615471</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C17" t="s">
         <v>5</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D17" t="s">
         <v>6</v>
       </c>
-      <c r="D17" t="s">
+      <c r="E17" t="s">
         <v>7</v>
       </c>
-      <c r="E17" t="s">
+      <c r="F17" t="s">
         <v>8</v>
       </c>
-      <c r="F17" t="s">
+      <c r="G17" t="s">
         <v>13</v>
       </c>
-      <c r="G17" t="s">
+      <c r="H17" t="s">
         <v>145</v>
       </c>
-      <c r="H17" t="s">
+      <c r="I17" t="s">
         <v>198</v>
       </c>
-      <c r="I17" t="s">
+      <c r="J17" t="s">
         <v>199</v>
       </c>
-      <c r="J17" t="s">
+      <c r="K17" t="s">
         <v>200</v>
       </c>
-      <c r="K17" t="s">
+      <c r="L17" t="s">
         <v>201</v>
       </c>
-      <c r="L17" t="s">
+      <c r="M17" t="s">
         <v>202</v>
       </c>
-      <c r="M17" t="s">
+      <c r="N17" t="s">
         <v>203</v>
       </c>
-      <c r="O17" t="s">
+      <c r="P17" t="s">
         <v>66</v>
       </c>
-      <c r="P17" t="s">
+      <c r="Q17" t="s">
         <v>33</v>
       </c>
-      <c r="Q17" t="s">
+      <c r="R17" t="s">
         <v>80</v>
       </c>
-      <c r="R17" t="s">
+      <c r="S17" t="s">
         <v>44</v>
       </c>
-      <c r="W17" s="3" t="s">
+      <c r="X17" s="3" t="s">
         <v>31</v>
       </c>
+      <c r="Y17" t="s">
+        <v>301</v>
+      </c>
+      <c r="Z17" t="s">
+        <v>300</v>
+      </c>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A18" s="1">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="B18" s="4">
         <v>615471</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C18" t="s">
         <v>5</v>
       </c>
-      <c r="C18" t="s">
+      <c r="D18" t="s">
         <v>6</v>
       </c>
-      <c r="D18" t="s">
+      <c r="E18" t="s">
         <v>7</v>
       </c>
-      <c r="E18" t="s">
+      <c r="F18" t="s">
         <v>8</v>
       </c>
-      <c r="F18" t="s">
+      <c r="G18" t="s">
         <v>13</v>
       </c>
-      <c r="G18" t="s">
+      <c r="H18" t="s">
         <v>145</v>
       </c>
-      <c r="H18" t="s">
+      <c r="I18" t="s">
         <v>204</v>
       </c>
-      <c r="I18" t="s">
+      <c r="J18" t="s">
         <v>205</v>
       </c>
-      <c r="J18" t="s">
+      <c r="K18" t="s">
         <v>206</v>
       </c>
-      <c r="K18" t="s">
+      <c r="L18" t="s">
         <v>207</v>
       </c>
-      <c r="L18" t="s">
+      <c r="M18" t="s">
         <v>209</v>
       </c>
-      <c r="M18" t="s">
+      <c r="N18" t="s">
         <v>208</v>
       </c>
-      <c r="O18" t="s">
+      <c r="P18" t="s">
         <v>81</v>
       </c>
-      <c r="P18" t="s">
+      <c r="Q18" t="s">
         <v>33</v>
       </c>
-      <c r="Q18" t="s">
+      <c r="R18" t="s">
         <v>81</v>
       </c>
-      <c r="R18" t="s">
+      <c r="S18" t="s">
         <v>43</v>
       </c>
-      <c r="W18" s="3" t="s">
+      <c r="X18" s="3" t="s">
         <v>31</v>
       </c>
+      <c r="Y18" t="s">
+        <v>301</v>
+      </c>
+      <c r="Z18" t="s">
+        <v>300</v>
+      </c>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A19" s="1">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="B19" s="4">
         <v>615471</v>
       </c>
-      <c r="B19" t="s">
+      <c r="C19" t="s">
         <v>5</v>
       </c>
-      <c r="C19" t="s">
+      <c r="D19" t="s">
         <v>6</v>
       </c>
-      <c r="D19" t="s">
+      <c r="E19" t="s">
         <v>7</v>
       </c>
-      <c r="E19" t="s">
+      <c r="F19" t="s">
         <v>8</v>
       </c>
-      <c r="F19" t="s">
+      <c r="G19" t="s">
         <v>17</v>
       </c>
-      <c r="G19" t="s">
+      <c r="H19" t="s">
         <v>146</v>
       </c>
-      <c r="H19" t="s">
+      <c r="I19" t="s">
         <v>210</v>
       </c>
-      <c r="I19" t="s">
+      <c r="J19" t="s">
         <v>164</v>
       </c>
-      <c r="J19" t="s">
+      <c r="K19" t="s">
         <v>211</v>
       </c>
-      <c r="K19" t="s">
+      <c r="L19" t="s">
         <v>174</v>
-      </c>
-      <c r="L19" t="s">
-        <v>213</v>
       </c>
       <c r="M19" t="s">
         <v>213</v>
       </c>
-      <c r="O19" t="s">
+      <c r="N19" t="s">
+        <v>213</v>
+      </c>
+      <c r="P19" t="s">
         <v>60</v>
       </c>
-      <c r="P19" t="s">
+      <c r="Q19" t="s">
         <v>34</v>
       </c>
-      <c r="Q19" t="s">
+      <c r="R19" t="s">
         <v>68</v>
       </c>
-      <c r="R19" t="s">
+      <c r="S19" t="s">
         <v>63</v>
       </c>
-      <c r="T19" t="s">
+      <c r="U19" t="s">
         <v>62</v>
       </c>
-      <c r="U19" t="s">
+      <c r="V19" t="s">
         <v>61</v>
       </c>
-      <c r="W19" t="s">
+      <c r="X19" t="s">
         <v>59</v>
       </c>
+      <c r="Y19" t="s">
+        <v>302</v>
+      </c>
+      <c r="Z19" t="s">
+        <v>303</v>
+      </c>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A20" s="1">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="B20" s="4">
         <v>615471</v>
       </c>
-      <c r="B20" t="s">
+      <c r="C20" t="s">
         <v>5</v>
       </c>
-      <c r="C20" t="s">
+      <c r="D20" t="s">
         <v>6</v>
       </c>
-      <c r="D20" t="s">
+      <c r="E20" t="s">
         <v>7</v>
       </c>
-      <c r="E20" t="s">
+      <c r="F20" t="s">
         <v>8</v>
       </c>
-      <c r="F20" t="s">
+      <c r="G20" t="s">
         <v>17</v>
       </c>
-      <c r="G20" t="s">
+      <c r="H20" t="s">
         <v>146</v>
       </c>
-      <c r="H20" t="s">
+      <c r="I20" t="s">
         <v>72</v>
       </c>
-      <c r="I20" t="s">
+      <c r="J20" t="s">
         <v>167</v>
       </c>
-      <c r="J20" t="s">
+      <c r="K20" t="s">
         <v>214</v>
       </c>
-      <c r="K20" t="s">
+      <c r="L20" t="s">
         <v>212</v>
       </c>
-      <c r="L20" t="s">
+      <c r="M20" t="s">
         <v>215</v>
       </c>
-      <c r="M20" t="s">
+      <c r="N20" t="s">
         <v>171</v>
       </c>
-      <c r="O20" t="s">
+      <c r="P20" t="s">
         <v>66</v>
       </c>
-      <c r="P20" t="s">
+      <c r="Q20" t="s">
         <v>34</v>
       </c>
-      <c r="Q20" t="s">
+      <c r="R20" t="s">
         <v>67</v>
       </c>
-      <c r="R20" t="s">
+      <c r="S20" t="s">
         <v>71</v>
       </c>
-      <c r="T20" t="s">
+      <c r="U20" t="s">
         <v>70</v>
       </c>
-      <c r="V20" t="s">
+      <c r="W20" t="s">
         <v>69</v>
       </c>
-      <c r="W20" s="3" t="s">
+      <c r="X20" s="3" t="s">
         <v>65</v>
       </c>
+      <c r="Y20" t="s">
+        <v>304</v>
+      </c>
+      <c r="Z20" t="s">
+        <v>305</v>
+      </c>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A21" s="1">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="B21" s="4">
         <v>615471</v>
       </c>
-      <c r="B21" t="s">
+      <c r="C21" t="s">
         <v>5</v>
       </c>
-      <c r="C21" t="s">
+      <c r="D21" t="s">
         <v>6</v>
       </c>
-      <c r="D21" t="s">
+      <c r="E21" t="s">
         <v>7</v>
       </c>
-      <c r="E21" t="s">
+      <c r="F21" t="s">
         <v>8</v>
       </c>
-      <c r="F21" t="s">
+      <c r="G21" t="s">
         <v>17</v>
       </c>
-      <c r="G21" t="s">
+      <c r="H21" t="s">
         <v>146</v>
       </c>
-      <c r="H21" t="s">
+      <c r="I21" t="s">
         <v>217</v>
       </c>
-      <c r="I21" t="s">
+      <c r="J21" t="s">
         <v>167</v>
       </c>
-      <c r="J21" t="s">
+      <c r="K21" t="s">
         <v>216</v>
       </c>
-      <c r="K21" t="s">
+      <c r="L21" t="s">
         <v>218</v>
       </c>
-      <c r="O21" t="s">
+      <c r="P21" t="s">
         <v>93</v>
       </c>
-      <c r="P21" t="s">
+      <c r="Q21" t="s">
         <v>33</v>
       </c>
-      <c r="Q21" t="s">
+      <c r="R21" t="s">
         <v>94</v>
       </c>
-      <c r="R21" t="s">
+      <c r="S21" t="s">
         <v>96</v>
       </c>
-      <c r="S21" t="s">
+      <c r="T21" t="s">
         <v>90</v>
       </c>
-      <c r="T21" t="s">
+      <c r="U21" t="s">
         <v>92</v>
       </c>
-      <c r="U21" t="s">
+      <c r="V21" t="s">
         <v>91</v>
       </c>
-      <c r="V21" t="s">
+      <c r="W21" t="s">
         <v>95</v>
       </c>
-      <c r="W21" s="3" t="s">
+      <c r="X21" s="3" t="s">
         <v>89</v>
       </c>
+      <c r="Y21" t="s">
+        <v>306</v>
+      </c>
+      <c r="Z21" t="s">
+        <v>307</v>
+      </c>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A22" s="1">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B22" s="4">
         <v>615471</v>
       </c>
-      <c r="B22" t="s">
+      <c r="C22" t="s">
         <v>5</v>
       </c>
-      <c r="C22" t="s">
+      <c r="D22" t="s">
         <v>6</v>
       </c>
-      <c r="D22" t="s">
+      <c r="E22" t="s">
         <v>7</v>
       </c>
-      <c r="E22" t="s">
+      <c r="F22" t="s">
         <v>8</v>
       </c>
-      <c r="F22" t="s">
+      <c r="G22" t="s">
         <v>17</v>
       </c>
-      <c r="G22" t="s">
+      <c r="H22" t="s">
         <v>146</v>
       </c>
-      <c r="H22" t="s">
+      <c r="I22" t="s">
         <v>72</v>
       </c>
-      <c r="I22" t="s">
+      <c r="J22" t="s">
         <v>167</v>
       </c>
-      <c r="J22" t="s">
+      <c r="K22" t="s">
         <v>214</v>
       </c>
-      <c r="K22" t="s">
+      <c r="L22" t="s">
         <v>212</v>
       </c>
-      <c r="L22" t="s">
+      <c r="M22" t="s">
         <v>215</v>
       </c>
-      <c r="M22" t="s">
+      <c r="N22" t="s">
         <v>171</v>
       </c>
-      <c r="O22" t="s">
+      <c r="P22" t="s">
         <v>104</v>
       </c>
-      <c r="P22" t="s">
+      <c r="Q22" t="s">
         <v>34</v>
       </c>
-      <c r="Q22" t="s">
+      <c r="R22" t="s">
         <v>105</v>
       </c>
-      <c r="R22" t="s">
+      <c r="S22" t="s">
         <v>108</v>
       </c>
-      <c r="S22" t="s">
+      <c r="T22" t="s">
         <v>107</v>
       </c>
-      <c r="V22" t="s">
+      <c r="W22" t="s">
         <v>106</v>
       </c>
-      <c r="W22" s="3" t="s">
+      <c r="X22" s="3" t="s">
         <v>103</v>
       </c>
+      <c r="Y22" t="s">
+        <v>308</v>
+      </c>
+      <c r="Z22" t="s">
+        <v>309</v>
+      </c>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A23" s="1">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="B23" s="4">
         <v>615471</v>
       </c>
-      <c r="B23" t="s">
+      <c r="C23" t="s">
         <v>5</v>
       </c>
-      <c r="C23" t="s">
+      <c r="D23" t="s">
         <v>6</v>
       </c>
-      <c r="D23" t="s">
+      <c r="E23" t="s">
         <v>7</v>
       </c>
-      <c r="E23" t="s">
+      <c r="F23" t="s">
         <v>8</v>
       </c>
-      <c r="F23" t="s">
+      <c r="G23" t="s">
         <v>17</v>
       </c>
-      <c r="G23" t="s">
+      <c r="H23" t="s">
         <v>145</v>
       </c>
-      <c r="H23" t="s">
+      <c r="I23" t="s">
         <v>219</v>
       </c>
-      <c r="I23" t="s">
+      <c r="J23" t="s">
         <v>220</v>
       </c>
-      <c r="J23" t="s">
+      <c r="K23" t="s">
         <v>221</v>
       </c>
-      <c r="K23" t="s">
+      <c r="L23" t="s">
         <v>222</v>
       </c>
-      <c r="L23" t="s">
+      <c r="M23" t="s">
         <v>223</v>
       </c>
-      <c r="M23" t="s">
+      <c r="N23" t="s">
         <v>186</v>
       </c>
-      <c r="O23" t="s">
+      <c r="P23" t="s">
         <v>104</v>
       </c>
-      <c r="P23" t="s">
+      <c r="Q23" t="s">
         <v>33</v>
       </c>
-      <c r="R23" t="s">
+      <c r="S23" t="s">
         <v>122</v>
       </c>
-      <c r="T23" t="s">
+      <c r="U23" t="s">
         <v>123</v>
       </c>
-      <c r="V23" t="s">
+      <c r="W23" t="s">
         <v>115</v>
       </c>
-      <c r="W23" s="3" t="s">
+      <c r="X23" s="3" t="s">
         <v>114</v>
       </c>
+      <c r="Y23" t="s">
+        <v>310</v>
+      </c>
+      <c r="Z23" t="s">
+        <v>311</v>
+      </c>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A24" s="1">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="B24" s="4">
         <v>615471</v>
       </c>
-      <c r="B24" t="s">
+      <c r="C24" t="s">
         <v>5</v>
       </c>
-      <c r="C24" t="s">
+      <c r="D24" t="s">
         <v>6</v>
       </c>
-      <c r="D24" t="s">
+      <c r="E24" t="s">
         <v>7</v>
       </c>
-      <c r="E24" t="s">
+      <c r="F24" t="s">
         <v>8</v>
       </c>
-      <c r="F24" t="s">
+      <c r="G24" t="s">
         <v>17</v>
       </c>
-      <c r="G24" t="s">
+      <c r="H24" t="s">
         <v>146</v>
       </c>
-      <c r="H24" t="s">
+      <c r="I24" t="s">
         <v>224</v>
       </c>
-      <c r="I24" t="s">
+      <c r="J24" t="s">
         <v>152</v>
       </c>
-      <c r="J24" t="s">
+      <c r="K24" t="s">
         <v>225</v>
       </c>
-      <c r="K24" t="s">
+      <c r="L24" t="s">
         <v>226</v>
       </c>
-      <c r="L24" t="s">
+      <c r="M24" t="s">
         <v>227</v>
       </c>
-      <c r="M24" t="s">
+      <c r="N24" t="s">
         <v>194</v>
       </c>
-      <c r="O24" t="s">
+      <c r="P24" t="s">
         <v>109</v>
       </c>
-      <c r="P24" t="s">
+      <c r="Q24" t="s">
         <v>33</v>
       </c>
-      <c r="Q24" t="s">
+      <c r="R24" t="s">
         <v>111</v>
       </c>
-      <c r="R24" t="s">
+      <c r="S24" t="s">
         <v>121</v>
       </c>
-      <c r="V24" t="s">
+      <c r="W24" t="s">
         <v>115</v>
       </c>
-      <c r="W24" s="3" t="s">
+      <c r="X24" s="3" t="s">
         <v>114</v>
       </c>
+      <c r="Y24" t="s">
+        <v>310</v>
+      </c>
+      <c r="Z24" t="s">
+        <v>311</v>
+      </c>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A25" s="1">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="B25" s="4">
         <v>615471</v>
       </c>
-      <c r="B25" t="s">
+      <c r="C25" t="s">
         <v>5</v>
       </c>
-      <c r="C25" t="s">
+      <c r="D25" t="s">
         <v>6</v>
       </c>
-      <c r="D25" t="s">
+      <c r="E25" t="s">
         <v>7</v>
       </c>
-      <c r="E25" t="s">
+      <c r="F25" t="s">
         <v>8</v>
       </c>
-      <c r="F25" t="s">
+      <c r="G25" t="s">
         <v>17</v>
       </c>
-      <c r="G25" t="s">
+      <c r="H25" t="s">
         <v>146</v>
       </c>
-      <c r="H25" t="s">
+      <c r="I25" t="s">
         <v>224</v>
       </c>
-      <c r="I25" t="s">
+      <c r="J25" t="s">
         <v>152</v>
       </c>
-      <c r="J25" t="s">
+      <c r="K25" t="s">
         <v>225</v>
       </c>
-      <c r="K25" t="s">
+      <c r="L25" t="s">
         <v>226</v>
       </c>
-      <c r="L25" t="s">
+      <c r="M25" t="s">
         <v>227</v>
       </c>
-      <c r="M25" t="s">
+      <c r="N25" t="s">
         <v>194</v>
       </c>
-      <c r="O25" t="s">
+      <c r="P25" t="s">
         <v>104</v>
       </c>
-      <c r="P25" t="s">
+      <c r="Q25" t="s">
         <v>33</v>
       </c>
-      <c r="R25" t="s">
+      <c r="S25" t="s">
         <v>125</v>
       </c>
-      <c r="T25" t="s">
+      <c r="U25" t="s">
         <v>124</v>
       </c>
-      <c r="V25" t="s">
+      <c r="W25" t="s">
         <v>116</v>
       </c>
-      <c r="W25" s="3" t="s">
+      <c r="X25" s="3" t="s">
         <v>114</v>
       </c>
+      <c r="Y25" t="s">
+        <v>310</v>
+      </c>
+      <c r="Z25" t="s">
+        <v>311</v>
+      </c>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A26" s="1">
+    <row r="26" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="B26" s="4">
         <v>615471</v>
       </c>
-      <c r="B26" t="s">
+      <c r="C26" t="s">
         <v>5</v>
       </c>
-      <c r="C26" t="s">
+      <c r="D26" t="s">
         <v>6</v>
       </c>
-      <c r="D26" t="s">
+      <c r="E26" t="s">
         <v>7</v>
       </c>
-      <c r="E26" t="s">
+      <c r="F26" t="s">
         <v>8</v>
       </c>
-      <c r="F26" t="s">
+      <c r="G26" t="s">
         <v>17</v>
       </c>
-      <c r="G26" t="s">
+      <c r="H26" t="s">
         <v>146</v>
       </c>
-      <c r="H26" t="s">
+      <c r="I26" t="s">
         <v>224</v>
       </c>
-      <c r="I26" t="s">
+      <c r="J26" t="s">
         <v>152</v>
       </c>
-      <c r="J26" t="s">
+      <c r="K26" t="s">
         <v>225</v>
       </c>
-      <c r="K26" t="s">
+      <c r="L26" t="s">
         <v>226</v>
       </c>
-      <c r="L26" t="s">
+      <c r="M26" t="s">
         <v>227</v>
       </c>
-      <c r="M26" t="s">
+      <c r="N26" t="s">
         <v>194</v>
       </c>
-      <c r="P26" t="s">
+      <c r="Q26" t="s">
         <v>33</v>
       </c>
-      <c r="R26" t="s">
+      <c r="S26" t="s">
         <v>126</v>
       </c>
-      <c r="V26" t="s">
+      <c r="W26" t="s">
         <v>117</v>
       </c>
-      <c r="W26" s="3" t="s">
+      <c r="X26" s="3" t="s">
         <v>114</v>
       </c>
+      <c r="Y26" t="s">
+        <v>310</v>
+      </c>
+      <c r="Z26" t="s">
+        <v>311</v>
+      </c>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A27" s="1">
+    <row r="27" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="B27" s="4">
         <v>615471</v>
       </c>
-      <c r="B27" t="s">
+      <c r="C27" t="s">
         <v>5</v>
       </c>
-      <c r="C27" t="s">
+      <c r="D27" t="s">
         <v>6</v>
       </c>
-      <c r="D27" t="s">
+      <c r="E27" t="s">
         <v>7</v>
       </c>
-      <c r="E27" t="s">
+      <c r="F27" t="s">
         <v>8</v>
       </c>
-      <c r="F27" t="s">
+      <c r="G27" t="s">
         <v>13</v>
       </c>
-      <c r="G27" t="s">
+      <c r="H27" t="s">
         <v>145</v>
       </c>
-      <c r="H27" t="s">
+      <c r="I27" t="s">
         <v>228</v>
       </c>
-      <c r="I27" t="s">
+      <c r="J27" t="s">
         <v>229</v>
       </c>
-      <c r="J27" t="s">
+      <c r="K27" t="s">
         <v>230</v>
       </c>
-      <c r="K27" t="s">
+      <c r="L27" t="s">
         <v>231</v>
       </c>
-      <c r="L27" t="s">
+      <c r="M27" t="s">
         <v>232</v>
       </c>
-      <c r="M27" t="s">
+      <c r="N27" t="s">
         <v>208</v>
       </c>
-      <c r="O27" t="s">
+      <c r="P27" t="s">
         <v>110</v>
       </c>
-      <c r="P27" t="s">
+      <c r="Q27" t="s">
         <v>34</v>
       </c>
-      <c r="R27" t="s">
+      <c r="S27" t="s">
         <v>132</v>
       </c>
-      <c r="T27" t="s">
+      <c r="U27" t="s">
         <v>129</v>
       </c>
-      <c r="V27" t="s">
+      <c r="W27" t="s">
         <v>118</v>
       </c>
-      <c r="W27" s="3" t="s">
+      <c r="X27" s="3" t="s">
         <v>114</v>
       </c>
+      <c r="Y27" t="s">
+        <v>310</v>
+      </c>
+      <c r="Z27" t="s">
+        <v>311</v>
+      </c>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A28" s="1">
+    <row r="28" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="B28" s="4">
         <v>615471</v>
       </c>
-      <c r="B28" t="s">
+      <c r="C28" t="s">
         <v>5</v>
       </c>
-      <c r="C28" t="s">
+      <c r="D28" t="s">
         <v>6</v>
       </c>
-      <c r="D28" t="s">
+      <c r="E28" t="s">
         <v>7</v>
       </c>
-      <c r="E28" t="s">
+      <c r="F28" t="s">
         <v>8</v>
       </c>
-      <c r="F28" t="s">
+      <c r="G28" t="s">
         <v>17</v>
       </c>
-      <c r="G28" t="s">
+      <c r="H28" t="s">
         <v>146</v>
       </c>
-      <c r="H28" t="s">
+      <c r="I28" t="s">
         <v>233</v>
       </c>
-      <c r="I28" t="s">
+      <c r="J28" t="s">
         <v>152</v>
       </c>
-      <c r="J28" t="s">
+      <c r="K28" t="s">
         <v>234</v>
       </c>
-      <c r="K28" t="s">
+      <c r="L28" t="s">
         <v>235</v>
       </c>
-      <c r="L28" t="s">
+      <c r="M28" t="s">
         <v>236</v>
       </c>
-      <c r="M28" t="s">
+      <c r="N28" t="s">
         <v>153</v>
       </c>
-      <c r="O28" t="s">
+      <c r="P28" t="s">
         <v>109</v>
       </c>
-      <c r="P28" t="s">
+      <c r="Q28" t="s">
         <v>33</v>
       </c>
-      <c r="Q28" t="s">
+      <c r="R28" t="s">
         <v>112</v>
       </c>
-      <c r="R28" t="s">
+      <c r="S28" t="s">
         <v>133</v>
       </c>
-      <c r="T28" t="s">
+      <c r="U28" t="s">
         <v>127</v>
       </c>
-      <c r="V28" t="s">
+      <c r="W28" t="s">
         <v>118</v>
       </c>
-      <c r="W28" s="3" t="s">
+      <c r="X28" s="3" t="s">
         <v>114</v>
       </c>
+      <c r="Y28" t="s">
+        <v>310</v>
+      </c>
+      <c r="Z28" t="s">
+        <v>311</v>
+      </c>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A29" s="1">
+    <row r="29" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="B29" s="4">
         <v>615471</v>
       </c>
-      <c r="B29" t="s">
+      <c r="C29" t="s">
         <v>5</v>
       </c>
-      <c r="C29" t="s">
+      <c r="D29" t="s">
         <v>6</v>
       </c>
-      <c r="D29" t="s">
+      <c r="E29" t="s">
         <v>7</v>
       </c>
-      <c r="E29" t="s">
+      <c r="F29" t="s">
         <v>8</v>
       </c>
-      <c r="F29" t="s">
+      <c r="G29" t="s">
         <v>17</v>
       </c>
-      <c r="G29" t="s">
+      <c r="H29" t="s">
         <v>146</v>
       </c>
-      <c r="H29" t="s">
+      <c r="I29" t="s">
         <v>237</v>
       </c>
-      <c r="I29" t="s">
+      <c r="J29" t="s">
         <v>152</v>
       </c>
-      <c r="J29" t="s">
+      <c r="K29" t="s">
         <v>238</v>
       </c>
-      <c r="K29" t="s">
+      <c r="L29" t="s">
         <v>239</v>
       </c>
-      <c r="L29" t="s">
+      <c r="M29" t="s">
         <v>240</v>
       </c>
-      <c r="M29" t="s">
+      <c r="N29" t="s">
         <v>241</v>
       </c>
-      <c r="O29" t="s">
+      <c r="P29" t="s">
         <v>66</v>
       </c>
-      <c r="P29" t="s">
+      <c r="Q29" t="s">
         <v>33</v>
       </c>
-      <c r="R29" t="s">
+      <c r="S29" t="s">
         <v>134</v>
       </c>
-      <c r="S29" t="s">
+      <c r="T29" t="s">
         <v>131</v>
       </c>
-      <c r="T29" t="s">
+      <c r="U29" t="s">
         <v>127</v>
       </c>
-      <c r="V29" t="s">
+      <c r="W29" t="s">
         <v>118</v>
       </c>
-      <c r="W29" s="3" t="s">
+      <c r="X29" s="3" t="s">
         <v>114</v>
       </c>
+      <c r="Y29" t="s">
+        <v>310</v>
+      </c>
+      <c r="Z29" t="s">
+        <v>311</v>
+      </c>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A30" s="1">
+    <row r="30" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="B30" s="4">
         <v>615471</v>
       </c>
-      <c r="B30" t="s">
+      <c r="C30" t="s">
         <v>5</v>
       </c>
-      <c r="C30" t="s">
+      <c r="D30" t="s">
         <v>6</v>
       </c>
-      <c r="D30" t="s">
+      <c r="E30" t="s">
         <v>7</v>
       </c>
-      <c r="E30" t="s">
+      <c r="F30" t="s">
         <v>8</v>
       </c>
-      <c r="F30" t="s">
+      <c r="G30" t="s">
         <v>17</v>
       </c>
-      <c r="G30" t="s">
+      <c r="H30" t="s">
         <v>145</v>
-      </c>
-      <c r="H30" t="s">
-        <v>251</v>
       </c>
       <c r="I30" t="s">
         <v>242</v>
@@ -2859,61 +3298,70 @@
       <c r="M30" t="s">
         <v>246</v>
       </c>
-      <c r="O30" t="s">
+      <c r="N30" t="s">
+        <v>247</v>
+      </c>
+      <c r="P30" t="s">
         <v>109</v>
       </c>
-      <c r="P30" t="s">
+      <c r="Q30" t="s">
         <v>34</v>
       </c>
-      <c r="Q30" t="s">
+      <c r="R30" t="s">
         <v>113</v>
       </c>
-      <c r="R30" t="s">
+      <c r="S30" t="s">
         <v>135</v>
       </c>
-      <c r="T30" t="s">
+      <c r="U30" t="s">
         <v>127</v>
       </c>
-      <c r="U30" t="s">
+      <c r="V30" t="s">
         <v>130</v>
       </c>
-      <c r="V30" t="s">
+      <c r="W30" t="s">
         <v>118</v>
       </c>
-      <c r="W30" s="3" t="s">
+      <c r="X30" s="3" t="s">
         <v>114</v>
       </c>
+      <c r="Y30" t="s">
+        <v>310</v>
+      </c>
+      <c r="Z30" t="s">
+        <v>311</v>
+      </c>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A31" s="1">
+    <row r="31" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="B31" s="4">
         <v>615471</v>
       </c>
-      <c r="B31" t="s">
+      <c r="C31" t="s">
         <v>5</v>
       </c>
-      <c r="C31" t="s">
+      <c r="D31" t="s">
         <v>6</v>
       </c>
-      <c r="D31" t="s">
+      <c r="E31" t="s">
         <v>7</v>
       </c>
-      <c r="E31" t="s">
+      <c r="F31" t="s">
         <v>8</v>
       </c>
-      <c r="F31" t="s">
+      <c r="G31" t="s">
         <v>17</v>
       </c>
-      <c r="G31" t="s">
+      <c r="H31" t="s">
         <v>146</v>
       </c>
-      <c r="H31" t="s">
-        <v>247</v>
-      </c>
       <c r="I31" t="s">
+        <v>248</v>
+      </c>
+      <c r="J31" t="s">
         <v>152</v>
-      </c>
-      <c r="J31" t="s">
-        <v>248</v>
       </c>
       <c r="K31" t="s">
         <v>249</v>
@@ -2922,64 +3370,74 @@
         <v>250</v>
       </c>
       <c r="M31" t="s">
+        <v>251</v>
+      </c>
+      <c r="N31" t="s">
         <v>153</v>
       </c>
-      <c r="O31" t="s">
+      <c r="P31" t="s">
         <v>109</v>
       </c>
-      <c r="P31" t="s">
+      <c r="Q31" t="s">
         <v>33</v>
       </c>
-      <c r="Q31" t="s">
+      <c r="R31" t="s">
         <v>120</v>
       </c>
-      <c r="R31" t="s">
+      <c r="S31" t="s">
         <v>128</v>
       </c>
-      <c r="T31" t="s">
+      <c r="U31" t="s">
         <v>127</v>
       </c>
-      <c r="V31" t="s">
+      <c r="W31" t="s">
         <v>119</v>
       </c>
-      <c r="W31" s="3" t="s">
+      <c r="X31" s="3" t="s">
         <v>114</v>
       </c>
+      <c r="Y31" t="s">
+        <v>310</v>
+      </c>
+      <c r="Z31" t="s">
+        <v>311</v>
+      </c>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A32" s="1"/>
+      <c r="B32" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="W10" r:id="rId1" xr:uid="{63CC0407-0F2E-4D18-B075-927A1C4351DE}"/>
-    <hyperlink ref="W9" r:id="rId2" xr:uid="{323C9AF2-160A-4EAA-895D-43F69B82CCDD}"/>
-    <hyperlink ref="W11" r:id="rId3" xr:uid="{B6357F26-25B8-4867-BA98-0DDA755B3DEB}"/>
-    <hyperlink ref="W12" r:id="rId4" xr:uid="{629E0098-96F5-4BFF-ADCB-EDF4CE73DC9A}"/>
-    <hyperlink ref="W13" r:id="rId5" xr:uid="{8B7F4954-C085-4423-9C40-53E3E6E74479}"/>
-    <hyperlink ref="W14" r:id="rId6" xr:uid="{9C344C78-7C17-4A35-9549-885C08C2DA37}"/>
-    <hyperlink ref="W15" r:id="rId7" xr:uid="{B2C2E0C2-0360-4C10-BA90-7D8E16456C32}"/>
-    <hyperlink ref="W16" r:id="rId8" xr:uid="{200D739C-3E2B-4249-9D81-41C5C6A4958C}"/>
-    <hyperlink ref="W17" r:id="rId9" xr:uid="{2292C162-0C77-4BF7-813F-E85ACBDC601D}"/>
-    <hyperlink ref="W18" r:id="rId10" xr:uid="{CDF36A38-C2AE-408A-9E28-CFA9D225D49F}"/>
-    <hyperlink ref="W20" r:id="rId11" xr:uid="{651BB07C-21C3-4CD7-8578-A7D9A2250B4C}"/>
-    <hyperlink ref="W2" r:id="rId12" xr:uid="{AE7B7D19-32D3-4543-AEA6-5C813ED7FEF0}"/>
-    <hyperlink ref="W21" r:id="rId13" xr:uid="{0321A0A1-2867-411D-A48B-634B6F6287B6}"/>
-    <hyperlink ref="W8" r:id="rId14" xr:uid="{67008193-2DD2-48A9-A8E8-333C074E4947}"/>
-    <hyperlink ref="W7" r:id="rId15" xr:uid="{3747E127-4F4B-42A6-8D11-E7D3F4C7B460}"/>
-    <hyperlink ref="W6" r:id="rId16" xr:uid="{4398B36B-AD0C-4CBC-9A66-612A72AE8CE4}"/>
-    <hyperlink ref="W22" r:id="rId17" xr:uid="{ACCA53D8-BCD5-4C57-8B27-541DBF1707D8}"/>
-    <hyperlink ref="W23" r:id="rId18" xr:uid="{057D5347-4B68-460C-8045-0D488EE9A408}"/>
-    <hyperlink ref="W24" r:id="rId19" xr:uid="{5B8AA422-A42D-4C40-ADA6-35938234C6F5}"/>
-    <hyperlink ref="W25" r:id="rId20" xr:uid="{ED4DFF12-6117-4399-B7E5-279158425CA9}"/>
-    <hyperlink ref="W26" r:id="rId21" xr:uid="{4A7058BA-ECB1-4775-B9C0-5455DFCE8F87}"/>
-    <hyperlink ref="W27" r:id="rId22" xr:uid="{6C5F6B94-768B-40A5-88E0-0B4C9E7202D5}"/>
-    <hyperlink ref="W31" r:id="rId23" xr:uid="{4686C6CC-3467-464E-B5BA-79393DE06308}"/>
-    <hyperlink ref="W28" r:id="rId24" xr:uid="{7DD2988C-2434-409A-85B3-CCD52D17224B}"/>
-    <hyperlink ref="W29" r:id="rId25" xr:uid="{29A56613-DCCE-4ABD-BF41-98C66EC72B27}"/>
-    <hyperlink ref="W30" r:id="rId26" xr:uid="{6C8BB80E-300E-4A80-A10F-A9B8134E598F}"/>
-    <hyperlink ref="W3" r:id="rId27" xr:uid="{3A5C25AD-FAB0-4D46-AAD2-BB10743FA01B}"/>
-    <hyperlink ref="W4" r:id="rId28" xr:uid="{C570103F-2278-4D1D-96ED-1F773CC4FA9B}"/>
-    <hyperlink ref="W5" r:id="rId29" xr:uid="{CEBB19BE-1E62-4D15-9464-771B4D410F8F}"/>
+    <hyperlink ref="X10" r:id="rId1" xr:uid="{63CC0407-0F2E-4D18-B075-927A1C4351DE}"/>
+    <hyperlink ref="X9" r:id="rId2" xr:uid="{323C9AF2-160A-4EAA-895D-43F69B82CCDD}"/>
+    <hyperlink ref="X11" r:id="rId3" xr:uid="{B6357F26-25B8-4867-BA98-0DDA755B3DEB}"/>
+    <hyperlink ref="X12" r:id="rId4" xr:uid="{629E0098-96F5-4BFF-ADCB-EDF4CE73DC9A}"/>
+    <hyperlink ref="X13" r:id="rId5" xr:uid="{8B7F4954-C085-4423-9C40-53E3E6E74479}"/>
+    <hyperlink ref="X14" r:id="rId6" xr:uid="{9C344C78-7C17-4A35-9549-885C08C2DA37}"/>
+    <hyperlink ref="X15" r:id="rId7" xr:uid="{B2C2E0C2-0360-4C10-BA90-7D8E16456C32}"/>
+    <hyperlink ref="X16" r:id="rId8" xr:uid="{200D739C-3E2B-4249-9D81-41C5C6A4958C}"/>
+    <hyperlink ref="X17" r:id="rId9" xr:uid="{2292C162-0C77-4BF7-813F-E85ACBDC601D}"/>
+    <hyperlink ref="X18" r:id="rId10" xr:uid="{CDF36A38-C2AE-408A-9E28-CFA9D225D49F}"/>
+    <hyperlink ref="X20" r:id="rId11" xr:uid="{651BB07C-21C3-4CD7-8578-A7D9A2250B4C}"/>
+    <hyperlink ref="X2" r:id="rId12" xr:uid="{AE7B7D19-32D3-4543-AEA6-5C813ED7FEF0}"/>
+    <hyperlink ref="X21" r:id="rId13" xr:uid="{0321A0A1-2867-411D-A48B-634B6F6287B6}"/>
+    <hyperlink ref="X8" r:id="rId14" xr:uid="{67008193-2DD2-48A9-A8E8-333C074E4947}"/>
+    <hyperlink ref="X7" r:id="rId15" xr:uid="{3747E127-4F4B-42A6-8D11-E7D3F4C7B460}"/>
+    <hyperlink ref="X6" r:id="rId16" xr:uid="{4398B36B-AD0C-4CBC-9A66-612A72AE8CE4}"/>
+    <hyperlink ref="X22" r:id="rId17" xr:uid="{ACCA53D8-BCD5-4C57-8B27-541DBF1707D8}"/>
+    <hyperlink ref="X23" r:id="rId18" xr:uid="{057D5347-4B68-460C-8045-0D488EE9A408}"/>
+    <hyperlink ref="X24" r:id="rId19" xr:uid="{5B8AA422-A42D-4C40-ADA6-35938234C6F5}"/>
+    <hyperlink ref="X25" r:id="rId20" xr:uid="{ED4DFF12-6117-4399-B7E5-279158425CA9}"/>
+    <hyperlink ref="X26" r:id="rId21" xr:uid="{4A7058BA-ECB1-4775-B9C0-5455DFCE8F87}"/>
+    <hyperlink ref="X27" r:id="rId22" xr:uid="{6C5F6B94-768B-40A5-88E0-0B4C9E7202D5}"/>
+    <hyperlink ref="X31" r:id="rId23" xr:uid="{4686C6CC-3467-464E-B5BA-79393DE06308}"/>
+    <hyperlink ref="X28" r:id="rId24" xr:uid="{7DD2988C-2434-409A-85B3-CCD52D17224B}"/>
+    <hyperlink ref="X29" r:id="rId25" xr:uid="{29A56613-DCCE-4ABD-BF41-98C66EC72B27}"/>
+    <hyperlink ref="X30" r:id="rId26" xr:uid="{6C8BB80E-300E-4A80-A10F-A9B8134E598F}"/>
+    <hyperlink ref="X3" r:id="rId27" xr:uid="{3A5C25AD-FAB0-4D46-AAD2-BB10743FA01B}"/>
+    <hyperlink ref="X4" r:id="rId28" xr:uid="{C570103F-2278-4D1D-96ED-1F773CC4FA9B}"/>
+    <hyperlink ref="X5" r:id="rId29" xr:uid="{CEBB19BE-1E62-4D15-9464-771B4D410F8F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId30"/>

--- a/notebooks/FBXL4/input/FBXL4-data.xlsx
+++ b/notebooks/FBXL4/input/FBXL4-data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10311"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robinp/GIT/phenopacket-store/notebooks/FBXL4/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27836AF0-C213-5B4E-AC9E-A7FCBE6FE0C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CCABFFE-EBE7-FA41-998B-6CB510ECD6BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="34600" windowHeight="17420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5320" yWindow="2680" windowWidth="34560" windowHeight="17420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1309,16 +1309,16 @@
   <dimension ref="A1:Z32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="Z31" sqref="Z31"/>
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="14.33203125" customWidth="1"/>
-    <col min="2" max="2" width="4" customWidth="1"/>
+    <col min="2" max="2" width="13.1640625" customWidth="1"/>
     <col min="3" max="3" width="19.83203125" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="3.33203125" customWidth="1"/>
-    <col min="5" max="5" width="2.33203125" customWidth="1"/>
+    <col min="4" max="4" width="15.6640625" customWidth="1"/>
+    <col min="5" max="5" width="15.1640625" customWidth="1"/>
     <col min="6" max="6" width="12.83203125" customWidth="1"/>
     <col min="7" max="7" width="9.1640625" customWidth="1"/>
     <col min="8" max="8" width="2" hidden="1" customWidth="1"/>
